--- a/output_validation/04_pin_factor_primary.xlsx
+++ b/output_validation/04_pin_factor_primary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>admin1</t>
   </si>
@@ -31,31 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>MMR001</t>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>primary</t>
   </si>
   <si>
     <t>idp</t>
@@ -482,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,19 +519,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>36202.65384615384</v>
@@ -566,19 +557,16 @@
       <c r="L2">
         <v>238.8857625744408</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>18955.46153846154</v>
@@ -607,19 +595,16 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>27346.30769230769</v>
@@ -648,19 +633,16 @@
       <c r="L4">
         <v>122.07650246065</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>30521.88461538461</v>
@@ -689,19 +671,16 @@
       <c r="L5">
         <v>337.1813684386964</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>79514.07692307692</v>
@@ -730,19 +709,16 @@
       <c r="L6">
         <v>388.6827061060688</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>109317.3846153846</v>
@@ -771,19 +747,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>43897</v>
@@ -812,19 +785,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>31684.69230769231</v>
@@ -853,19 +823,16 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>29988.26923076923</v>
@@ -894,19 +861,16 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>180620.1923076923</v>
@@ -935,19 +899,16 @@
       <c r="L11">
         <v>1299.429200674964</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>36062.65384615384</v>
@@ -976,19 +937,16 @@
       <c r="L12">
         <v>2908.227409421634</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>39764.3076923077</v>
@@ -1017,19 +975,16 @@
       <c r="L13">
         <v>156.8949479531568</v>
       </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>36173.03846153846</v>
@@ -1058,19 +1013,16 @@
       <c r="L14">
         <v>155.1141879512247</v>
       </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>92313.30769230769</v>
@@ -1099,19 +1051,16 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>66759</v>
@@ -1140,19 +1089,16 @@
       <c r="L16">
         <v>391.6313730811079</v>
       </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>27215.46153846154</v>
@@ -1181,19 +1127,16 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>31477.11538461539</v>
@@ -1222,19 +1165,16 @@
       <c r="L18">
         <v>185.9845942502</v>
       </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>32798.23076923077</v>
@@ -1262,9 +1202,6 @@
       </c>
       <c r="L19">
         <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,19 +1254,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>5171.807692307693</v>
@@ -1358,19 +1292,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>2707.923076923077</v>
@@ -1399,19 +1330,16 @@
       <c r="L3">
         <v>128.8233495800879</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>3906.615384615385</v>
@@ -1440,19 +1368,16 @@
       <c r="L4">
         <v>154.7229249591422</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>4360.269230769231</v>
@@ -1481,19 +1406,16 @@
       <c r="L5">
         <v>28.91241338188856</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>11359.15384615385</v>
@@ -1522,19 +1444,16 @@
       <c r="L6">
         <v>996.2480039527115</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>15616.76923076923</v>
@@ -1563,19 +1482,16 @@
       <c r="L7">
         <v>461.7610710703264</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>6271.000000000001</v>
@@ -1604,19 +1520,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>4284.038461538462</v>
@@ -1645,19 +1558,16 @@
       <c r="L9">
         <v>243.7799919697923</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>5151.807692307693</v>
@@ -1686,19 +1596,16 @@
       <c r="L10">
         <v>515.4571321365678</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>5680.615384615385</v>
@@ -1727,19 +1634,16 @@
       <c r="L11">
         <v>101.7374587806619</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>13187.61538461539</v>
@@ -1768,19 +1672,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>9537</v>
@@ -1808,9 +1709,6 @@
       </c>
       <c r="L13">
         <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1820,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,19 +1761,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>2585.903846153847</v>
@@ -1904,19 +1799,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>1353.961538461539</v>
@@ -1945,19 +1837,16 @@
       <c r="L3">
         <v>110.3249156522497</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1953.307692307693</v>
@@ -1986,19 +1875,16 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>2180.134615384616</v>
@@ -2027,19 +1913,16 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>5679.576923076924</v>
@@ -2068,19 +1951,16 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>7808.384615384617</v>
@@ -2109,19 +1989,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>3135.5</v>
@@ -2150,19 +2027,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>2142.019230769231</v>
@@ -2191,19 +2065,16 @@
       <c r="L9">
         <v>100.8482275661978</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>2575.903846153847</v>
@@ -2232,19 +2103,16 @@
       <c r="L10">
         <v>44.58304110376396</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>2840.307692307692</v>
@@ -2273,19 +2141,16 @@
       <c r="L11">
         <v>17.35003774567036</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>6593.807692307693</v>
@@ -2314,19 +2179,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>4768.5</v>
@@ -2354,9 +2216,6 @@
       </c>
       <c r="L13">
         <v>254.927351509627</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2366,13 +2225,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,19 +2268,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>8520.923076923076</v>
@@ -2449,9 +2305,6 @@
       </c>
       <c r="L2">
         <v>23.68018436368258</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/04_pin_factor_primary.xlsx
+++ b/output_validation/04_pin_factor_primary.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,61 +52,70 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -522,13 +531,13 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>36202.65384615384</v>
+        <v>79514.07692307692</v>
       </c>
       <c r="D2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>33091.75207386047</v>
+        <v>79514.07692307692</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3110.901772293383</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -557,25 +566,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>18955.46153846154</v>
+        <v>92313.30769230769</v>
       </c>
       <c r="D3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5598.530473831064</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6741199099500413</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12778.25402536916</v>
+        <v>92313.30769230769</v>
       </c>
       <c r="H3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>578.6770392613128</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -592,19 +601,19 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>27346.30769230769</v>
+        <v>18955.46153846154</v>
       </c>
       <c r="D4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>18330.78399152832</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9015.523700779377</v>
+        <v>18955.46153846154</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -627,31 +636,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>30521.88461538461</v>
+        <v>180620.1923076923</v>
       </c>
       <c r="D5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3838.9354472358</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>23045.31848967166</v>
+        <v>180620.1923076923</v>
       </c>
       <c r="H5">
-        <v>0.03435466991323431</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1048.569271091363</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08482639391411527</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2589.06140738579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,25 +671,25 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>79514.07692307692</v>
+        <v>36202.65384615384</v>
       </c>
       <c r="D6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9741.071324834436</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8774924931310202</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="G6">
-        <v>69773.00559824248</v>
+        <v>25213.84996520178</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10988.80388095207</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -697,25 +706,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>109317.3846153846</v>
+        <v>32798.23076923077</v>
       </c>
       <c r="D7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>79321.44290222466</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2146109304523383</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>23460.70562692382</v>
+        <v>32798.23076923077</v>
       </c>
       <c r="H7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6535.236086236129</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -732,31 +741,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>43897</v>
+        <v>66759</v>
       </c>
       <c r="D8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>34784.81852823116</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1591963593292097</v>
+        <v>0.8613945520003562</v>
       </c>
       <c r="G8">
-        <v>6988.242585474319</v>
+        <v>57505.83889699177</v>
       </c>
       <c r="H8">
-        <v>0.04838460228021334</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2123.938886294525</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1386054479996439</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9253.161103008229</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,13 +776,13 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>31684.69230769231</v>
+        <v>39764.3076923077</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>31684.69230769231</v>
+        <v>39764.3076923077</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>29988.26923076923</v>
+        <v>36062.65384615384</v>
       </c>
       <c r="D10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="E10">
-        <v>20323.1054558159</v>
+        <v>15113.05124588478</v>
       </c>
       <c r="F10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="G10">
-        <v>9665.163774953333</v>
+        <v>20949.60260026906</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -840,16 +849,16 @@
         <v>180620.1923076923</v>
       </c>
       <c r="D11">
-        <v>0.8620064665872667</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>155695.7737654664</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1379935334127334</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>24924.41854222587</v>
+        <v>180620.1923076923</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -872,25 +881,25 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>36062.65384615384</v>
+        <v>43897</v>
       </c>
       <c r="D12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="E12">
-        <v>27823.49778828188</v>
+        <v>16963.23056981042</v>
       </c>
       <c r="F12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="G12">
-        <v>5257.572543353924</v>
+        <v>26933.76943018959</v>
       </c>
       <c r="H12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2981.583514518041</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -907,31 +916,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>39764.3076923077</v>
+        <v>36173.03846153846</v>
       </c>
       <c r="D13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>11834.41865149374</v>
+        <v>36173.03846153846</v>
       </c>
       <c r="F13">
-        <v>0.6202356802759943</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>24663.24243224242</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1486.606566117724</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1780.040042453808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,25 +951,25 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>36173.03846153846</v>
+        <v>79514.07692307692</v>
       </c>
       <c r="D14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E14">
-        <v>20091.03798331691</v>
+        <v>72681.41532115538</v>
       </c>
       <c r="F14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>14619.60728335183</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I14">
-        <v>1462.393194869727</v>
+        <v>6832.661601921535</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -977,25 +986,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>92313.30769230769</v>
+        <v>36202.65384615384</v>
       </c>
       <c r="D15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E15">
-        <v>81273.35155724188</v>
+        <v>33091.75207386047</v>
       </c>
       <c r="F15">
-        <v>0.1195922496013622</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>11039.95613506581</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3110.901772293383</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1012,25 +1021,25 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>66759</v>
+        <v>32798.23076923077</v>
       </c>
       <c r="D16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E16">
-        <v>46519.43052171979</v>
+        <v>29979.87179859616</v>
       </c>
       <c r="F16">
-        <v>0.3031736466735603</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>20239.56947828021</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2818.358970634613</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1047,25 +1056,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>27215.46153846154</v>
+        <v>31684.69230769231</v>
       </c>
       <c r="D17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E17">
-        <v>25339.6687615933</v>
+        <v>9358.132223720742</v>
       </c>
       <c r="F17">
-        <v>0.06892379077302539</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G17">
-        <v>1875.792776868243</v>
+        <v>21359.28192525631</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>967.2781587152637</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1082,25 +1091,25 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>31477.11538461539</v>
+        <v>109317.3846153846</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E18">
-        <v>31477.11538461539</v>
+        <v>32287.09086544428</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>73693.0254728971</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3337.26827704324</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1117,25 +1126,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>32798.23076923077</v>
+        <v>27215.46153846154</v>
       </c>
       <c r="D19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E19">
-        <v>23819.50821331914</v>
+        <v>8038.136685476905</v>
       </c>
       <c r="F19">
-        <v>0.2737563077437364</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G19">
-        <v>8978.722555911623</v>
+        <v>18346.48448155651</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>830.8403714281321</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,31 +1203,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>5171.807692307693</v>
+        <v>13187.61538461539</v>
       </c>
       <c r="D2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="E2">
-        <v>3613.220516557396</v>
+        <v>9499.29789212079</v>
       </c>
       <c r="F2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="G2">
-        <v>677.1431808459063</v>
+        <v>3688.317492494596</v>
       </c>
       <c r="H2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>881.4439949043899</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1229,31 +1238,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>2707.923076923077</v>
+        <v>25802.88461538462</v>
       </c>
       <c r="D3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1265.011732947295</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4362981448828352</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1181.461814946958</v>
+        <v>25802.88461538462</v>
       </c>
       <c r="H3">
-        <v>0.09654983601893945</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>261.4495290288251</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1264,31 +1273,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>3906.615384615385</v>
+        <v>11359.15384615385</v>
       </c>
       <c r="D4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="E4">
-        <v>2150.593945287844</v>
+        <v>3051.490428513436</v>
       </c>
       <c r="F4">
-        <v>0.4494994429814916</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="G4">
-        <v>1756.021439327541</v>
+        <v>6492.964404740017</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1814.699012900393</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1299,31 +1308,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>4360.269230769231</v>
+        <v>5171.807692307693</v>
       </c>
       <c r="D5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1030.007188600183</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7237605554225978</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3155.790880253602</v>
+        <v>5171.807692307693</v>
       </c>
       <c r="H5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>174.4711619154465</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1334,31 +1343,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>11359.15384615385</v>
+        <v>4360.269230769231</v>
       </c>
       <c r="D6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>686.4750984976971</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>9750.25272892165</v>
+        <v>4360.269230769231</v>
       </c>
       <c r="H6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>922.4260187344998</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1369,66 +1378,66 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>15616.76923076923</v>
+        <v>3906.615384615385</v>
       </c>
       <c r="D7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="E7">
-        <v>2592.093040110444</v>
+        <v>2140.971103870435</v>
       </c>
       <c r="F7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="G7">
-        <v>10096.63622000313</v>
+        <v>741.6086330260956</v>
       </c>
       <c r="H7">
-        <v>0.1874933238359339</v>
+        <v>0.1812730652342958</v>
       </c>
       <c r="I7">
-        <v>2928.039970655664</v>
+        <v>708.1641454606881</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08085554147513409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>315.8715022581662</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>6271.000000000001</v>
+        <v>5680.615384615385</v>
       </c>
       <c r="D8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>5256.363279167751</v>
+        <v>5680.615384615385</v>
       </c>
       <c r="F8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>771.6305632819873</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>243.0061575502621</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1439,31 +1448,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>4284.038461538462</v>
+        <v>11359.15384615385</v>
       </c>
       <c r="D9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E9">
-        <v>1434.604245218943</v>
+        <v>7935.934622762672</v>
       </c>
       <c r="F9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G9">
-        <v>2175.536343911908</v>
+        <v>1487.250498223864</v>
       </c>
       <c r="H9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I9">
-        <v>673.8978724076118</v>
+        <v>1935.96872516731</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1474,31 +1483,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>5151.807692307693</v>
+        <v>5171.807692307693</v>
       </c>
       <c r="D10">
-        <v>0.5046915229780159</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E10">
-        <v>2600.073670320627</v>
+        <v>3613.220516557396</v>
       </c>
       <c r="F10">
-        <v>0.3583226586368378</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G10">
-        <v>1846.009429093404</v>
+        <v>677.1431808459063</v>
       </c>
       <c r="H10">
-        <v>0.1369858183851464</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I10">
-        <v>705.7245928936618</v>
+        <v>881.4439949043899</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1509,66 +1518,66 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>5680.615384615385</v>
+        <v>4685.461538461539</v>
       </c>
       <c r="D11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E11">
-        <v>2106.950150406859</v>
+        <v>3273.440693761704</v>
       </c>
       <c r="F11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G11">
-        <v>2589.457207915598</v>
+        <v>613.4660294124952</v>
       </c>
       <c r="H11">
-        <v>0.1422492925461661</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I11">
-        <v>808.0635196884058</v>
+        <v>798.5548152873388</v>
       </c>
       <c r="J11">
-        <v>0.03100799731690495</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>176.1445066045229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>13187.61538461539</v>
+        <v>4526.384615384616</v>
       </c>
       <c r="D12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E12">
-        <v>5298.220248344242</v>
+        <v>2114.509712292068</v>
       </c>
       <c r="F12">
-        <v>0.5982427380673293</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G12">
-        <v>7889.395136271145</v>
+        <v>1974.853210718514</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>437.021692374035</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1579,36 +1588,71 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>9537</v>
+        <v>15616.76923076923</v>
       </c>
       <c r="D13">
-        <v>0.07542672232317281</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E13">
-        <v>719.3446507960991</v>
+        <v>7295.405277944888</v>
       </c>
       <c r="F13">
-        <v>0.8690003027501599</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G13">
-        <v>8287.655887328276</v>
+        <v>6813.567444447959</v>
       </c>
       <c r="H13">
-        <v>0.05557297492666727</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I13">
-        <v>529.9994618756258</v>
+        <v>1507.796508376389</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>3887.923076923077</v>
+      </c>
+      <c r="D14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="E14">
+        <v>1816.251115483201</v>
+      </c>
+      <c r="F14">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="G14">
+        <v>1696.293625908703</v>
+      </c>
+      <c r="H14">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="I14">
+        <v>375.3783355311736</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1619,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1662,25 +1706,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>2585.903846153847</v>
+        <v>1353.961538461539</v>
       </c>
       <c r="D2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1473.399417739171</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1112.504428414676</v>
+        <v>1353.961538461539</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1697,25 +1741,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1353.961538461539</v>
+        <v>12901.44230769231</v>
       </c>
       <c r="D3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>152.4323050373605</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8584936775155422</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1162.367420368447</v>
+        <v>12901.44230769231</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1724,39 +1768,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>39.16181305573059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>1953.307692307693</v>
+        <v>5679.576923076924</v>
       </c>
       <c r="D4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="E4">
-        <v>1512.444903602505</v>
+        <v>2816.202800557774</v>
       </c>
       <c r="F4">
-        <v>0.2257006361267845</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="G4">
-        <v>440.8627887051875</v>
+        <v>1145.205445073251</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1718.1686774459</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1767,31 +1811,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>2180.134615384616</v>
+        <v>2585.903846153847</v>
       </c>
       <c r="D5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>988.6926412305742</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4693465799928334</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1023.238725654761</v>
+        <v>2585.903846153847</v>
       </c>
       <c r="H5">
-        <v>0.07715268924786407</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>168.2032484992809</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1802,25 +1846,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>5679.576923076924</v>
+        <v>2342.73076923077</v>
       </c>
       <c r="D6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="E6">
-        <v>336.951036766854</v>
+        <v>1969.095390474424</v>
       </c>
       <c r="F6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="G6">
-        <v>5342.62588631007</v>
+        <v>373.6353787563461</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1837,31 +1881,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>7808.384615384617</v>
+        <v>2180.134615384616</v>
       </c>
       <c r="D7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="E7">
-        <v>3210.040973858302</v>
+        <v>1107.311017271962</v>
       </c>
       <c r="F7">
-        <v>0.2813629377676347</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G7">
-        <v>2196.990034604218</v>
+        <v>1072.823598112654</v>
       </c>
       <c r="H7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2401.353606922096</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1875,22 +1919,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>3135.5</v>
+        <v>4768.5</v>
       </c>
       <c r="D8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="E8">
-        <v>1936.140619654467</v>
+        <v>2693.557513616029</v>
       </c>
       <c r="F8">
-        <v>0.3825097688871097</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="G8">
-        <v>1199.359380345533</v>
+        <v>2074.942486383971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1907,31 +1951,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>2142.019230769231</v>
+        <v>12901.44230769231</v>
       </c>
       <c r="D9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="E9">
-        <v>236.0123786649835</v>
+        <v>7114.230059798171</v>
       </c>
       <c r="F9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="G9">
-        <v>1635.432821338472</v>
+        <v>5787.212247894138</v>
       </c>
       <c r="H9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>270.5740307657759</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1942,31 +1986,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>2575.903846153847</v>
+        <v>5679.576923076924</v>
       </c>
       <c r="D10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E10">
-        <v>1228.243437195275</v>
+        <v>3236.116201270581</v>
       </c>
       <c r="F10">
-        <v>0.3771087072538309</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G10">
-        <v>971.3957694332481</v>
+        <v>2443.460721806343</v>
       </c>
       <c r="H10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>376.2646395253234</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1977,31 +2021,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>2840.307692307692</v>
+        <v>2585.903846153847</v>
       </c>
       <c r="D11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E11">
-        <v>1438.317516529935</v>
+        <v>1473.399417739171</v>
       </c>
       <c r="F11">
-        <v>0.4543501314915568</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G11">
-        <v>1290.49417347648</v>
+        <v>1112.504428414676</v>
       </c>
       <c r="H11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>111.4960023012762</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2012,25 +2056,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>6593.807692307693</v>
+        <v>2342.73076923077</v>
       </c>
       <c r="D12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E12">
-        <v>4023.511409956735</v>
+        <v>1334.8439681693</v>
       </c>
       <c r="F12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G12">
-        <v>2570.296282350959</v>
+        <v>1007.88680106147</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2047,37 +2091,107 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>4768.5</v>
+        <v>2263.192307692308</v>
       </c>
       <c r="D13">
-        <v>0.4427434746950732</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="E13">
-        <v>2111.222259083457</v>
+        <v>254.7957311965857</v>
       </c>
       <c r="F13">
-        <v>0.4344131602771897</v>
+        <v>0.8584936775155422</v>
       </c>
       <c r="G13">
-        <v>2071.499154781779</v>
+        <v>1942.936287155656</v>
       </c>
       <c r="H13">
-        <v>0.1228433650277372</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>585.7785861347647</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02892387408598686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>65.46028934006634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>7808.384615384617</v>
+      </c>
+      <c r="D14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E14">
+        <v>879.0870580369533</v>
+      </c>
+      <c r="F14">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G14">
+        <v>6703.448823917322</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K14">
+        <v>225.8487334303416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1943.961538461539</v>
+      </c>
+      <c r="D15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E15">
+        <v>218.8559495924584</v>
+      </c>
+      <c r="F15">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G15">
+        <v>1668.878690102617</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K15">
+        <v>56.22689876646285</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,36 +2244,211 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>17038.73076923077</v>
+      </c>
+      <c r="D2">
+        <v>0.2304031860173474</v>
+      </c>
+      <c r="E2">
+        <v>3925.777854922579</v>
+      </c>
+      <c r="F2">
+        <v>0.4969275497660341</v>
+      </c>
+      <c r="G2">
+        <v>8467.014732276979</v>
+      </c>
+      <c r="H2">
+        <v>0.2726692642166184</v>
+      </c>
+      <c r="I2">
+        <v>4645.93818203121</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>7757.711538461539</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7757.711538461539</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>7028.192307692308</v>
+      </c>
+      <c r="D4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="E4">
+        <v>5496.113644568391</v>
+      </c>
+      <c r="F4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="G4">
+        <v>1532.078663123916</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>6540.403846153847</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6540.403846153847</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>5859.923076923077</v>
+      </c>
+      <c r="D6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="E6">
+        <v>1366.998601294255</v>
+      </c>
+      <c r="F6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="G6">
+        <v>4492.924475628823</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>8520.923076923076</v>
       </c>
-      <c r="D2">
-        <v>0.357012769940906</v>
-      </c>
-      <c r="E2">
-        <v>3042.078350145695</v>
-      </c>
-      <c r="F2">
-        <v>0.5302458965458244</v>
-      </c>
-      <c r="G2">
-        <v>4518.184496321082</v>
-      </c>
-      <c r="H2">
-        <v>0.1127413335132695</v>
-      </c>
-      <c r="I2">
-        <v>960.6602304562995</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8520.923076923076</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output_validation/04_pin_factor_primary.xlsx
+++ b/output_validation/04_pin_factor_primary.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,70 +52,61 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -531,31 +522,31 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>79514.07692307692</v>
+        <v>36202.65384615384</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="E2">
-        <v>79514.07692307692</v>
+        <v>26627.08982704623</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2347291702405611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>8497.81889781395</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>838.8593587192199</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>238.8857625744408</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -566,25 +557,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>92313.30769230769</v>
+        <v>18955.46153846154</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5461.285124395525</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6737953618662589</v>
       </c>
       <c r="G3">
-        <v>92313.30769230769</v>
+        <v>12772.10206664964</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03809320843764467</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>722.074347416372</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -601,31 +592,31 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>18955.46153846154</v>
+        <v>27346.30769230769</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14845.3321679924</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3976487884179679</v>
       </c>
       <c r="G4">
-        <v>18955.46153846154</v>
+        <v>10874.22612155111</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05502289074026563</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1504.672900303532</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004464094525455411</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>122.07650246065</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -636,31 +627,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>180620.1923076923</v>
+        <v>30521.88461538461</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9026.548660746912</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6578798859844721</v>
       </c>
       <c r="G5">
-        <v>180620.1923076923</v>
+        <v>20079.73397080044</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03533270074859607</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1078.420615398563</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01104720015449962</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>337.1813684386964</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,31 +662,31 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>36202.65384615384</v>
+        <v>79514.07692307692</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2168995155835068</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>17246.56476668507</v>
       </c>
       <c r="F6">
-        <v>0.6964641341585097</v>
+        <v>0.7305780530002808</v>
       </c>
       <c r="G6">
-        <v>25213.84996520178</v>
+        <v>58091.23950457609</v>
       </c>
       <c r="H6">
-        <v>0.3035358658414903</v>
+        <v>0.04763420632265963</v>
       </c>
       <c r="I6">
-        <v>10988.80388095207</v>
+        <v>3787.589945709675</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.004888225093552757</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>388.6827061060688</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,25 +697,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>32798.23076923077</v>
+        <v>109317.3846153846</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>79312.36162007714</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2370695257967525</v>
       </c>
       <c r="G7">
-        <v>32798.23076923077</v>
+        <v>25915.82053211043</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4089.202463197037</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -741,31 +732,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>66759</v>
+        <v>43897</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.7749837497270196</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>34019.46166176697</v>
       </c>
       <c r="F8">
-        <v>0.8613945520003562</v>
+        <v>0.209809235113927</v>
       </c>
       <c r="G8">
-        <v>57505.83889699177</v>
+        <v>9209.995993796052</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0152070151590535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>667.5423444369715</v>
       </c>
       <c r="J8">
-        <v>0.1386054479996439</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>9253.161103008229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,25 +767,25 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>39764.3076923077</v>
+        <v>31684.69230769231</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7567306197548094</v>
       </c>
       <c r="E9">
-        <v>39764.3076923077</v>
+        <v>23976.77684674044</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1675719832943586</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5309.466730071507</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07569739695083223</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2398.448730880365</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -811,25 +802,25 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>36062.65384615384</v>
+        <v>29988.26923076923</v>
       </c>
       <c r="D10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="E10">
-        <v>15113.05124588478</v>
+        <v>23437.99925953899</v>
       </c>
       <c r="F10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="G10">
-        <v>20949.60260026906</v>
+        <v>6142.130782223773</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>408.1391890064652</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -849,28 +840,28 @@
         <v>180620.1923076923</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>139770.0991590994</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1835332944656455</v>
       </c>
       <c r="G11">
-        <v>180620.1923076923</v>
+        <v>33149.8189412492</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6400.84500666867</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1299.429200674964</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -881,31 +872,31 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>43897</v>
+        <v>36062.65384615384</v>
       </c>
       <c r="D12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="E12">
-        <v>16963.23056981042</v>
+        <v>24377.75838305465</v>
       </c>
       <c r="F12">
-        <v>0.6135674289857982</v>
+        <v>0.1561867307546227</v>
       </c>
       <c r="G12">
-        <v>26933.76943018959</v>
+        <v>5632.508006566389</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08718604184052609</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3144.160047111178</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08064374357551064</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2908.227409421634</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -916,31 +907,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>36173.03846153846</v>
+        <v>39764.3076923077</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4619138320502864</v>
       </c>
       <c r="E13">
-        <v>36173.03846153846</v>
+        <v>18367.68374498053</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4818668178334236</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>19161.10041104143</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.05227372759553111</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2078.628588332575</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.003945622520758929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>156.8949479531568</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -951,31 +942,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>79514.07692307692</v>
+        <v>36173.03846153846</v>
       </c>
       <c r="D14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554797</v>
       </c>
       <c r="E14">
-        <v>72681.41532115538</v>
+        <v>23794.27861284409</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.2601186299610622</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>9409.281206144193</v>
       </c>
       <c r="H14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174836</v>
       </c>
       <c r="I14">
-        <v>6832.661601921535</v>
+        <v>2814.364454598955</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.004288116081709647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>155.1141879512247</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -986,25 +977,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>36202.65384615384</v>
+        <v>92313.30769230769</v>
       </c>
       <c r="D15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="E15">
-        <v>33091.75207386047</v>
+        <v>75464.49396240927</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1384496847897296</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>12780.74835189732</v>
       </c>
       <c r="H15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="I15">
-        <v>3110.901772293383</v>
+        <v>4068.0653780011</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1021,31 +1012,31 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>32798.23076923077</v>
+        <v>66759</v>
       </c>
       <c r="D16">
-        <v>0.9140697865545047</v>
+        <v>0.5381211257149618</v>
       </c>
       <c r="E16">
-        <v>29979.87179859616</v>
+        <v>35924.42823160514</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.3977397650072821</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>26552.70897212115</v>
       </c>
       <c r="H16">
-        <v>0.08593021344549534</v>
+        <v>0.05827276357034409</v>
       </c>
       <c r="I16">
-        <v>2818.358970634613</v>
+        <v>3890.231423192601</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.005866345707411853</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>391.6313730811079</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1047,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>31684.69230769231</v>
+        <v>27215.46153846154</v>
       </c>
       <c r="D17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="E17">
-        <v>9358.132223720742</v>
+        <v>23265.23020309374</v>
       </c>
       <c r="F17">
-        <v>0.6741199099500413</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="G17">
-        <v>21359.28192525631</v>
+        <v>2978.100489865909</v>
       </c>
       <c r="H17">
-        <v>0.03052824844634616</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="I17">
-        <v>967.2781587152637</v>
+        <v>972.1308455018938</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1091,31 +1082,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>109317.3846153846</v>
+        <v>31477.11538461539</v>
       </c>
       <c r="D18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="E18">
-        <v>32287.09086544428</v>
+        <v>29110.47459413512</v>
       </c>
       <c r="F18">
-        <v>0.6741199099500413</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="G18">
-        <v>73693.0254728971</v>
+        <v>1144.115010578932</v>
       </c>
       <c r="H18">
-        <v>0.03052824844634616</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="I18">
-        <v>3337.26827704324</v>
+        <v>1036.541185651134</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.005908565380838581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>185.9845942502</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1126,25 +1117,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>27215.46153846154</v>
+        <v>32798.23076923077</v>
       </c>
       <c r="D19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="E19">
-        <v>8038.136685476905</v>
+        <v>28575.03375598936</v>
       </c>
       <c r="F19">
-        <v>0.6741199099500413</v>
+        <v>0.08529242819010917</v>
       </c>
       <c r="G19">
-        <v>18346.48448155651</v>
+        <v>2797.440742647244</v>
       </c>
       <c r="H19">
-        <v>0.03052824844634616</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="I19">
-        <v>830.8403714281321</v>
+        <v>1425.756270594165</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1160,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1203,31 +1194,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>13187.61538461539</v>
+        <v>5171.807692307693</v>
       </c>
       <c r="D2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189163</v>
       </c>
       <c r="E2">
-        <v>9499.29789212079</v>
+        <v>3675.365879205405</v>
       </c>
       <c r="F2">
-        <v>0.2796803959567528</v>
+        <v>0.1940314058866316</v>
       </c>
       <c r="G2">
-        <v>3688.317492494596</v>
+        <v>1003.493117513758</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.09531458339445194</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>492.9486955885296</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1238,206 +1229,206 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>25802.88461538462</v>
+        <v>2707.923076923077</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3290499252879423</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>891.0418861470334</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6036718536496696</v>
       </c>
       <c r="G3">
-        <v>25802.88461538462</v>
+        <v>1634.696943386871</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01970547031554419</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>53.36089780908478</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04757275074684381</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>128.8233495800879</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4">
-        <v>11359.15384615385</v>
+        <v>3906.615384615385</v>
       </c>
       <c r="D4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="E4">
-        <v>3051.490428513436</v>
+        <v>1763.800043551604</v>
       </c>
       <c r="F4">
-        <v>0.5716063443351023</v>
+        <v>0.4698528086710667</v>
       </c>
       <c r="G4">
-        <v>6492.964404740017</v>
+        <v>1835.534210859138</v>
       </c>
       <c r="H4">
-        <v>0.1597565309422093</v>
+        <v>0.03905124774921262</v>
       </c>
       <c r="I4">
-        <v>1814.699012900393</v>
+        <v>152.5582052455009</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03960536416470775</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>154.7229249591422</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>5171.807692307693</v>
+        <v>4360.269230769231</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1054.415185834294</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7294574180822524</v>
       </c>
       <c r="G5">
-        <v>5171.807692307693</v>
+        <v>3180.630735220412</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02208829116628782</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>96.3108963326366</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006630878015022912</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>28.91241338188856</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>4360.269230769231</v>
+        <v>11359.15384615385</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>353.9429418429925</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8586113691592343</v>
       </c>
       <c r="G6">
-        <v>4360.269230769231</v>
+        <v>9753.098636336537</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0225249404565677</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>255.8642640216075</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08770442036842702</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>996.2480039527115</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>3906.615384615385</v>
+        <v>15616.76923076923</v>
       </c>
       <c r="D7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="E7">
-        <v>2140.971103870435</v>
+        <v>5392.58896934199</v>
       </c>
       <c r="F7">
-        <v>0.18983405326939</v>
+        <v>0.5658377226259738</v>
       </c>
       <c r="G7">
-        <v>741.6086330260956</v>
+        <v>8836.557136313844</v>
       </c>
       <c r="H7">
-        <v>0.1812730652342958</v>
+        <v>0.0592864017109811</v>
       </c>
       <c r="I7">
-        <v>708.1641454606881</v>
+        <v>925.8620540430741</v>
       </c>
       <c r="J7">
-        <v>0.08085554147513409</v>
+        <v>0.02956828421082979</v>
       </c>
       <c r="K7">
-        <v>315.8715022581662</v>
+        <v>461.7610710703264</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>5680.615384615385</v>
+        <v>6271.000000000001</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="E8">
-        <v>5680.615384615385</v>
+        <v>4184.369763027678</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.259974004174096</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1630.296980175756</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.07276881785944292</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>456.3332567965666</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1448,136 +1439,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>11359.15384615385</v>
+        <v>4284.038461538462</v>
       </c>
       <c r="D9">
-        <v>0.6986378325573731</v>
+        <v>0.430018342774032</v>
       </c>
       <c r="E9">
-        <v>7935.934622762672</v>
+        <v>1842.215119610983</v>
       </c>
       <c r="F9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332985</v>
       </c>
       <c r="G9">
-        <v>1487.250498223864</v>
+        <v>1879.066500536171</v>
       </c>
       <c r="H9">
-        <v>0.1704324768717539</v>
+        <v>0.07445704614588498</v>
       </c>
       <c r="I9">
-        <v>1935.96872516731</v>
+        <v>318.9768494215153</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05690424914678459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>243.7799919697923</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>5171.807692307693</v>
+        <v>5151.807692307693</v>
       </c>
       <c r="D10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="E10">
-        <v>3613.220516557396</v>
+        <v>2595.271953787498</v>
       </c>
       <c r="F10">
-        <v>0.1309296905708729</v>
+        <v>0.3269055964410499</v>
       </c>
       <c r="G10">
-        <v>677.1431808459063</v>
+        <v>1684.154766403435</v>
       </c>
       <c r="H10">
-        <v>0.1704324768717539</v>
+        <v>0.06928128169712645</v>
       </c>
       <c r="I10">
-        <v>881.4439949043899</v>
+        <v>356.9238399801922</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1000536438707157</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>515.4571321365678</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>4685.461538461539</v>
+        <v>5680.615384615385</v>
       </c>
       <c r="D11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="E11">
-        <v>3273.440693761704</v>
+        <v>1728.529626285815</v>
       </c>
       <c r="F11">
-        <v>0.1309296905708729</v>
+        <v>0.53127577367946</v>
       </c>
       <c r="G11">
-        <v>613.4660294124952</v>
+        <v>3017.973333436982</v>
       </c>
       <c r="H11">
-        <v>0.1704324768717539</v>
+        <v>0.1465290131006264</v>
       </c>
       <c r="I11">
-        <v>798.5548152873388</v>
+        <v>832.3749661119274</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01790958406657735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>101.7374587806619</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>4526.384615384616</v>
+        <v>13187.61538461539</v>
       </c>
       <c r="D12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="E12">
-        <v>2114.509712292068</v>
+        <v>7057.098973983073</v>
       </c>
       <c r="F12">
-        <v>0.4362981448828352</v>
+        <v>0.427848515348812</v>
       </c>
       <c r="G12">
-        <v>1974.853210718514</v>
+        <v>5642.301663298845</v>
       </c>
       <c r="H12">
-        <v>0.09654983601893945</v>
+        <v>0.03702069958023029</v>
       </c>
       <c r="I12">
-        <v>437.021692374035</v>
+        <v>488.2147473334694</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1588,71 +1579,36 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>15616.76923076923</v>
+        <v>9537</v>
       </c>
       <c r="D13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="E13">
-        <v>7295.405277944888</v>
+        <v>1531.84774211883</v>
       </c>
       <c r="F13">
-        <v>0.4362981448828352</v>
+        <v>0.8104340121734962</v>
       </c>
       <c r="G13">
-        <v>6813.567444447959</v>
+        <v>7729.109174098634</v>
       </c>
       <c r="H13">
-        <v>0.09654983601893945</v>
+        <v>0.02894443575364755</v>
       </c>
       <c r="I13">
-        <v>1507.796508376389</v>
+        <v>276.0430837825368</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>3887.923076923077</v>
-      </c>
-      <c r="D14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="E14">
-        <v>1816.251115483201</v>
-      </c>
-      <c r="F14">
-        <v>0.4362981448828352</v>
-      </c>
-      <c r="G14">
-        <v>1696.293625908703</v>
-      </c>
-      <c r="H14">
-        <v>0.09654983601893945</v>
-      </c>
-      <c r="I14">
-        <v>375.3783355311736</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1663,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,31 +1662,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>1353.961538461539</v>
+        <v>2585.903846153847</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5993405930558749</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1549.837144739314</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3636580578984003</v>
       </c>
       <c r="G2">
-        <v>1353.961538461539</v>
+        <v>940.3847706043114</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>95.6819308102209</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1741,66 +1697,66 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>12901.44230769231</v>
+        <v>1353.961538461539</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>222.4876543899897</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.7269411387684906</v>
       </c>
       <c r="G3">
-        <v>12901.44230769231</v>
+        <v>984.2503426179684</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02725234414210714</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>36.89862580133069</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08148304993774656</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>110.3249156522497</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>5679.576923076924</v>
+        <v>1953.307692307693</v>
       </c>
       <c r="D4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792545</v>
       </c>
       <c r="E4">
-        <v>2816.202800557774</v>
+        <v>960.5813782115779</v>
       </c>
       <c r="F4">
-        <v>0.2016356958596897</v>
+        <v>0.5018100436891416</v>
       </c>
       <c r="G4">
-        <v>1145.205445073251</v>
+        <v>980.1894184152595</v>
       </c>
       <c r="H4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603986</v>
       </c>
       <c r="I4">
-        <v>1718.1686774459</v>
+        <v>12.53689568085539</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1811,31 +1767,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>2585.903846153847</v>
+        <v>2180.134615384616</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4068563174242845</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>887.0015411045937</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5438038650798588</v>
       </c>
       <c r="G5">
-        <v>2585.903846153847</v>
+        <v>1185.565630240545</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04933981749585655</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>107.5674440394764</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1846,25 +1802,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>2342.73076923077</v>
+        <v>5679.576923076924</v>
       </c>
       <c r="D6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="E6">
-        <v>1969.095390474424</v>
+        <v>429.5119171311364</v>
       </c>
       <c r="F6">
-        <v>0.1594871180519939</v>
+        <v>0.9243760718538789</v>
       </c>
       <c r="G6">
-        <v>373.6353787563461</v>
+        <v>5250.065005945788</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1881,31 +1837,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7">
-        <v>2180.134615384616</v>
+        <v>7808.384615384617</v>
       </c>
       <c r="D7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="E7">
-        <v>1107.311017271962</v>
+        <v>4292.403758874956</v>
       </c>
       <c r="F7">
-        <v>0.4920905298883979</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="G7">
-        <v>1072.823598112654</v>
+        <v>3039.546641153191</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>476.4342153564701</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1919,28 +1875,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>4768.5</v>
+        <v>3135.5</v>
       </c>
       <c r="D8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="E8">
-        <v>2693.557513616029</v>
+        <v>1483.735990416998</v>
       </c>
       <c r="F8">
-        <v>0.4351352598058029</v>
+        <v>0.4835065653399762</v>
       </c>
       <c r="G8">
-        <v>2074.942486383971</v>
+        <v>1516.034835623495</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>135.7291739595069</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1951,136 +1907,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>12901.44230769231</v>
+        <v>2142.019230769231</v>
       </c>
       <c r="D9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971404</v>
       </c>
       <c r="E9">
-        <v>7114.230059798171</v>
+        <v>600.2803907213171</v>
       </c>
       <c r="F9">
-        <v>0.4485709512062533</v>
+        <v>0.5367967648046197</v>
       </c>
       <c r="G9">
-        <v>5787.212247894138</v>
+        <v>1149.828993226203</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1358818889553052</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>291.061619255513</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04708091604293471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>100.8482275661978</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>5679.576923076924</v>
+        <v>2575.903846153847</v>
       </c>
       <c r="D10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="E10">
-        <v>3236.116201270581</v>
+        <v>1374.984141559565</v>
       </c>
       <c r="F10">
-        <v>0.4302187918044066</v>
+        <v>0.3095139273790007</v>
       </c>
       <c r="G10">
-        <v>2443.460721806343</v>
+        <v>797.2781159737505</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>359.0585475167668</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>44.58304110376396</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>2585.903846153847</v>
+        <v>2840.307692307692</v>
       </c>
       <c r="D11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="E11">
-        <v>1473.399417739171</v>
+        <v>933.8222042352814</v>
       </c>
       <c r="F11">
-        <v>0.4302187918044066</v>
+        <v>0.5839649092903765</v>
       </c>
       <c r="G11">
-        <v>1112.504428414676</v>
+        <v>1658.64002389522</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08115156926686631</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>230.4954264315209</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006108506410294514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.35003774567036</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>2342.73076923077</v>
+        <v>6593.807692307693</v>
       </c>
       <c r="D12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="E12">
-        <v>1334.8439681693</v>
+        <v>3909.295895178715</v>
       </c>
       <c r="F12">
-        <v>0.4302187918044066</v>
+        <v>0.2064855341440782</v>
       </c>
       <c r="G12">
-        <v>1007.88680106147</v>
+        <v>1361.525903389486</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1322.985893739492</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2091,107 +2047,37 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>2263.192307692308</v>
+        <v>4768.5</v>
       </c>
       <c r="D13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="E13">
-        <v>254.7957311965857</v>
+        <v>1748.462586856678</v>
       </c>
       <c r="F13">
-        <v>0.8584936775155422</v>
+        <v>0.5168045651851666</v>
       </c>
       <c r="G13">
-        <v>1942.936287155656</v>
+        <v>2464.382569085467</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06306542781760052</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>300.7274925482282</v>
       </c>
       <c r="J13">
-        <v>0.02892387408598686</v>
+        <v>0.05346070074648779</v>
       </c>
       <c r="K13">
-        <v>65.46028934006634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>7808.384615384617</v>
-      </c>
-      <c r="D14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E14">
-        <v>879.0870580369533</v>
-      </c>
-      <c r="F14">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G14">
-        <v>6703.448823917322</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K14">
-        <v>225.8487334303416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>1943.961538461539</v>
-      </c>
-      <c r="D15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E15">
-        <v>218.8559495924584</v>
-      </c>
-      <c r="F15">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G15">
-        <v>1668.878690102617</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K15">
-        <v>56.22689876646285</v>
+        <v>254.927351509627</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,212 +2130,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>17038.73076923077</v>
+        <v>8520.923076923076</v>
       </c>
       <c r="D2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="E2">
-        <v>3925.777854922579</v>
+        <v>2728.432496327077</v>
       </c>
       <c r="F2">
-        <v>0.4969275497660341</v>
+        <v>0.6089976789828835</v>
       </c>
       <c r="G2">
-        <v>8467.014732276979</v>
+        <v>5189.222376637844</v>
       </c>
       <c r="H2">
-        <v>0.2726692642166184</v>
+        <v>0.06801939348145869</v>
       </c>
       <c r="I2">
-        <v>4645.93818203121</v>
+        <v>579.5880195944725</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002779063271655956</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>7757.711538461539</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>7757.711538461539</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>7028.192307692308</v>
-      </c>
-      <c r="D4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="E4">
-        <v>5496.113644568391</v>
-      </c>
-      <c r="F4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="G4">
-        <v>1532.078663123916</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>6540.403846153847</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6540.403846153847</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>5859.923076923077</v>
-      </c>
-      <c r="D6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="E6">
-        <v>1366.998601294255</v>
-      </c>
-      <c r="F6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="G6">
-        <v>4492.924475628823</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>8520.923076923076</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8520.923076923076</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>23.68018436368258</v>
       </c>
     </row>
   </sheetData>
